--- a/recipes/Bottled Waters.xlsx
+++ b/recipes/Bottled Waters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\coffee-water\recipes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personal\coffee-water\recipes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2CF0CE6-548D-4DBD-B82F-5D055BD8F996}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60790A88-7337-4C1B-ABC7-2719AEEEA013}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Combinations-Two Bottles" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="42">
   <si>
     <t>Ratio</t>
   </si>
@@ -176,6 +176,9 @@
   </si>
   <si>
     <t>Perla Harghitei</t>
+  </si>
+  <si>
+    <t>Bucovina 5L</t>
   </si>
 </sst>
 </file>
@@ -334,14 +337,14 @@
     <xf numFmtId="9" fontId="1" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="4" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="4" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -721,7 +724,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Table_3" displayName="Table_3" ref="L3:S16" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Table_3" displayName="Table_3" ref="L3:S17" headerRowCount="0">
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="Column1">
       <calculatedColumnFormula>IFERROR(E3/C3,"...")</calculatedColumnFormula>
@@ -1054,11 +1057,11 @@
   </sheetPr>
   <dimension ref="A1:S24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N7" sqref="N7"/>
+      <selection pane="bottomRight" activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1081,16 +1084,16 @@
         <v>0</v>
       </c>
       <c r="D1" s="1"/>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
       <c r="M1" s="12"/>
       <c r="N1" s="2" t="s">
         <v>2</v>
@@ -1651,46 +1654,97 @@
         <v>231.71806167400882</v>
       </c>
       <c r="N9" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="N9" si="19">0.8202*G9</f>
         <v>41.537529515418505</v>
       </c>
       <c r="O9" s="5">
-        <f t="shared" ref="O9" si="19">Q9+R9</f>
+        <f t="shared" ref="O9" si="20">Q9+R9</f>
         <v>188.24099559471367</v>
       </c>
       <c r="P9" s="6">
-        <f t="shared" ref="P9" si="20">O9/N9</f>
+        <f t="shared" ref="P9" si="21">O9/N9</f>
         <v>4.5318293550616593</v>
       </c>
       <c r="Q9" s="5">
-        <f t="shared" ref="Q9" si="21">4.118*F9</f>
+        <f t="shared" ref="Q9" si="22">4.118*F9</f>
         <v>26.122995594713661</v>
       </c>
       <c r="R9" s="5">
-        <f t="shared" ref="R9" si="22">2.497*E9</f>
+        <f t="shared" ref="R9" si="23">2.497*E9</f>
         <v>162.11799999999999</v>
       </c>
       <c r="S9" s="7"/>
     </row>
     <row r="10" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
+      <c r="A10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="2">
+        <v>5</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="array" ref="D10">IFERROR((INDEX(Data!B$3:B23,MATCH($A10,Data!$A$3:$A23,0))*10+INDEX(Data!B$3:B23,MATCH($B10,Data!$A$3:$A23,0))*$C10)/(10+$C10),"...")</f>
+        <v>7.5666666666666664</v>
+      </c>
+      <c r="E10" s="3">
+        <f t="array" ref="E10">(INDEX(Data!C$3:C23,MATCH($A10,Data!$A$3:$A23,0))*10+INDEX(Data!C$3:C23,MATCH($B10,Data!$A$3:$A23,0))*$C10)/(10+$C10)</f>
+        <v>47.666666666666664</v>
+      </c>
+      <c r="F10" s="3">
+        <f t="array" ref="F10">(INDEX(Data!D$3:D23,MATCH($A10,Data!$A$3:$A23,0))*10+INDEX(Data!D$3:D23,MATCH($B10,Data!$A$3:$A23,0))*$C10)/(10+$C10)</f>
+        <v>4.29</v>
+      </c>
+      <c r="G10" s="3">
+        <f t="array" ref="G10">(INDEX(Data!E$3:E23,MATCH($A10,Data!$A$3:$A23,0))*10+INDEX(Data!E$3:E23,MATCH($B10,Data!$A$3:$A23,0))*$C10)/(10+$C10)</f>
+        <v>49.166666666666664</v>
+      </c>
+      <c r="H10" s="3">
+        <f t="array" ref="H10">(INDEX(Data!F$3:F23,MATCH($A10,Data!$A$3:$A23,0))*10+INDEX(Data!F$3:F23,MATCH($B10,Data!$A$3:$A23,0))*$C10)/(10+$C10)</f>
+        <v>3.4433333333333334</v>
+      </c>
+      <c r="I10" s="3">
+        <f t="array" ref="I10">(INDEX(Data!G$3:G23,MATCH($A10,Data!$A$3:$A23,0))*10+INDEX(Data!G$3:G23,MATCH($B10,Data!$A$3:$A23,0))*$C10)/(10+$C10)</f>
+        <v>1.7266666666666666</v>
+      </c>
+      <c r="J10" s="3">
+        <f t="array" ref="J10">(INDEX(Data!H$3:H23,MATCH($A10,Data!$A$3:$A23,0))*10+INDEX(Data!H$3:H23,MATCH($B10,Data!$A$3:$A23,0))*$C10)/(10+$C10)</f>
+        <v>1.1233333333333335</v>
+      </c>
+      <c r="K10" s="3">
+        <f t="array" ref="K10">(INDEX(Data!I$3:I23,MATCH($A10,Data!$A$3:$A23,0))*10+INDEX(Data!I$3:I23,MATCH($B10,Data!$A$3:$A23,0))*$C10)/(10+$C10)</f>
+        <v>6.7</v>
+      </c>
+      <c r="L10" s="3">
+        <f t="array" ref="L10">(INDEX(Data!J$3:J23,MATCH($A10,Data!$A$3:$A23,0))*10+INDEX(Data!J$3:J23,MATCH($B10,Data!$A$3:$A23,0))*$C10)/(10+$C10)</f>
+        <v>0.35</v>
+      </c>
+      <c r="M10" s="3">
+        <f t="array" ref="M10">(INDEX(Data!K$3:K23,MATCH($A10,Data!$A$3:$A23,0))*10+INDEX(Data!K$3:K23,MATCH($B10,Data!$A$3:$A23,0))*$C10)/(10+$C10)</f>
+        <v>159.33333333333334</v>
+      </c>
+      <c r="N10" s="5">
+        <f t="shared" ref="N10" si="24">0.8202*G10</f>
+        <v>40.326500000000003</v>
+      </c>
+      <c r="O10" s="5">
+        <f t="shared" ref="O10" si="25">Q10+R10</f>
+        <v>136.68988666666667</v>
+      </c>
+      <c r="P10" s="6">
+        <f t="shared" ref="P10" si="26">O10/N10</f>
+        <v>3.3895797221843367</v>
+      </c>
+      <c r="Q10" s="5">
+        <f t="shared" ref="Q10" si="27">4.118*F10</f>
+        <v>17.666220000000003</v>
+      </c>
+      <c r="R10" s="5">
+        <f t="shared" ref="R10" si="28">2.497*E10</f>
+        <v>119.02366666666666</v>
+      </c>
       <c r="S10" s="7"/>
     </row>
     <row r="11" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2009,11 +2063,11 @@
   </sheetPr>
   <dimension ref="A1:S25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K25" sqref="K25"/>
+      <selection pane="bottomRight" activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2033,16 +2087,16 @@
     <row r="1" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
       <c r="K1" s="10"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2" t="s">
@@ -2935,7 +2989,7 @@
       <c r="D15" s="8">
         <v>1.9</v>
       </c>
-      <c r="E15" s="22"/>
+      <c r="E15" s="20"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8">
         <v>4.0999999999999996</v>
@@ -2976,11 +3030,11 @@
         <f t="shared" ref="Q15" si="31">2.497*C15</f>
         <v>35.4574</v>
       </c>
-      <c r="R15" s="21">
+      <c r="R15" s="19">
         <f>Table_3[[#This Row],[Column5]]/Table_3[[#This Row],[Column3]]</f>
         <v>0.18077427821522313</v>
       </c>
-      <c r="S15" s="21">
+      <c r="S15" s="19">
         <f>Table_3[[#This Row],[Column6]]/Table_3[[#This Row],[Column3]]</f>
         <v>0.81922572178477693</v>
       </c>
@@ -3043,35 +3097,83 @@
         <f t="shared" ref="Q16" si="36">2.497*C16</f>
         <v>294.64599999999996</v>
       </c>
-      <c r="R16" s="21">
+      <c r="R16" s="19">
         <f>Table_3[[#This Row],[Column5]]/Table_3[[#This Row],[Column3]]</f>
         <v>0.14871966739955103</v>
       </c>
-      <c r="S16" s="21">
+      <c r="S16" s="19">
         <f>Table_3[[#This Row],[Column6]]/Table_3[[#This Row],[Column3]]</f>
         <v>0.85128033260044889</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="14"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="14"/>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="14"/>
-    </row>
-    <row r="18" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="8">
+        <v>7.7</v>
+      </c>
+      <c r="C17" s="8">
+        <v>21</v>
+      </c>
+      <c r="D17" s="8">
+        <v>3.87</v>
+      </c>
+      <c r="E17" s="8">
+        <v>99.5</v>
+      </c>
+      <c r="F17" s="8">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="G17" s="8">
+        <v>5.18</v>
+      </c>
+      <c r="H17" s="8">
+        <v>3.37</v>
+      </c>
+      <c r="I17" s="8">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="J17" s="8">
+        <v>0.95</v>
+      </c>
+      <c r="K17" s="8">
+        <v>60</v>
+      </c>
+      <c r="L17" s="5">
+        <f t="shared" ref="L17" si="37">IFERROR(E17/C17,"...")</f>
+        <v>4.7380952380952381</v>
+      </c>
+      <c r="M17" s="5">
+        <f>0.8202*E17</f>
+        <v>81.60990000000001</v>
+      </c>
+      <c r="N17" s="5">
+        <f t="shared" ref="N17" si="38">P17+Q17</f>
+        <v>68.373660000000001</v>
+      </c>
+      <c r="O17" s="17">
+        <f t="shared" ref="O17" si="39">N17/M17</f>
+        <v>0.83781085383023379</v>
+      </c>
+      <c r="P17" s="5">
+        <f t="shared" ref="P17" si="40">4.118*D17</f>
+        <v>15.936660000000002</v>
+      </c>
+      <c r="Q17" s="5">
+        <f t="shared" ref="Q17" si="41">2.497*C17</f>
+        <v>52.436999999999998</v>
+      </c>
+      <c r="R17" s="19">
+        <f>Table_3[[#This Row],[Column5]]/Table_3[[#This Row],[Column3]]</f>
+        <v>0.23308186222589228</v>
+      </c>
+      <c r="S17" s="19">
+        <f>Table_3[[#This Row],[Column6]]/Table_3[[#This Row],[Column3]]</f>
+        <v>0.76691813777410767</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="14"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
@@ -3090,7 +3192,7 @@
       <c r="P18" s="14"/>
       <c r="Q18" s="14"/>
     </row>
-    <row r="19" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="14"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -3109,7 +3211,7 @@
       <c r="P19" s="14"/>
       <c r="Q19" s="14"/>
     </row>
-    <row r="20" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="14"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -3128,7 +3230,7 @@
       <c r="P20" s="14"/>
       <c r="Q20" s="14"/>
     </row>
-    <row r="21" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="14"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -3147,7 +3249,7 @@
       <c r="P21" s="14"/>
       <c r="Q21" s="14"/>
     </row>
-    <row r="22" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="14"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -3166,7 +3268,7 @@
       <c r="P22" s="14"/>
       <c r="Q22" s="14"/>
     </row>
-    <row r="23" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="14"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -3185,7 +3287,7 @@
       <c r="P23" s="14"/>
       <c r="Q23" s="14"/>
     </row>
-    <row r="24" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="14"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -3204,7 +3306,7 @@
       <c r="P24" s="14"/>
       <c r="Q24" s="14"/>
     </row>
-    <row r="25" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="14"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
